--- a/biology/Zoologie/Anadara/Anadara.xlsx
+++ b/biology/Zoologie/Anadara/Anadara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anadara est un genre de mollusques bivalves de la famille des Arcidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 septembre 2013) :
 Anadara adamsi
 Anadara aequatorialis
 Anadara aethiopica
@@ -629,7 +645,7 @@
 Anadara tuberculosa
 Anadara uropigimelana
 Anadara vellicata
-Selon ITIS      (20 septembre 2013)[1] :
+Selon ITIS      (20 septembre 2013) :
 Anadara auriculata Lamarck
 Anadara baughmani Hertlein, 1951
 Anadara brasiliana (Lamarck, 1819)
@@ -645,7 +661,7 @@
 Anadara secticostata Reeve, 1844
 Anadara transversa (Say, 1822)
 Anadara tuberculosa (G. B. Sowerby I, 1833)
-Selon NCBI  (20 septembre 2013)[3] :
+Selon NCBI  (20 septembre 2013) :
 Anadara adamsi
 Anadara antiquata
 Anadara brasiliana
@@ -663,7 +679,7 @@
 Anadara trapezia
 Anadara tuberculosa
 Anadara vellicata
-Selon Paleobiology Database                   (20 septembre 2013)[4] :
+Selon Paleobiology Database                   (20 septembre 2013) :
 Anadara (Anadara)
 Anadara (Caloosarca)
 Anadara (Cunearca)
@@ -707,7 +723,7 @@
 Anadara trapezia
 Anadara woodringi
 sous-espèce Arca (Anadara) santana
-Selon World Register of Marine Species                               (20 septembre 2013)[5] :
+Selon World Register of Marine Species                               (20 septembre 2013) :
 Anadara adamsi Olsson, 1961
 Anadara aequatorialis (d'Orbigny, 1846)
 Anadara aethiopica (Thiele &amp; Jaeckel, 1931)
